--- a/experiment_templates/NOMADS_Library_Rapid_Worksheet.xlsx
+++ b/experiment_templates/NOMADS_Library_Rapid_Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\git\nomadic\experiment_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DD1139-8179-48E7-84FE-B3E4127EFE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBBA4E9-BC1A-4AF6-9615-B03C69276CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17532" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2055,88 +2055,8 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2156,6 +2076,86 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3220,7 +3220,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C2:F6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3229,161 +3229,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="94" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="88" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="88"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="96" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="J2" s="103" t="s">
+      <c r="H2" s="95"/>
+      <c r="J2" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="103"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="88" t="s">
         <v>327</v>
       </c>
       <c r="B3" s="88"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
       <c r="G3" t="s">
         <v>314</v>
       </c>
-      <c r="J3" s="105" t="s">
+      <c r="J3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="105"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="88" t="s">
         <v>312</v>
       </c>
       <c r="B4" s="88"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
       <c r="G4" t="s">
         <v>331</v>
       </c>
-      <c r="J4" s="106" t="s">
+      <c r="J4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="106"/>
+      <c r="K4" s="92"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="88" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="88"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="110"/>
+      <c r="K5" s="85"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
       <c r="G6" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="107" t="str">
+      <c r="B7" s="81"/>
+      <c r="C7" s="82" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C5)),"",CONCATENATE("SL",user_initials,C5))</f>
         <v/>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91" t="str">
+      <c r="B8" s="81"/>
+      <c r="C8" s="103" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),ISBLANK(C5)),"",CONCATENATE(C2,"_",C7))</f>
         <v/>
       </c>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="109" t="str">
+      <c r="B9" s="83"/>
+      <c r="C9" s="84" t="str">
         <f>IF(OR(LEN(C8)=0,LEN(exp_summary)=0),"",CONCATENATE(C8,"_",exp_summary))</f>
         <v/>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="95">
+      <c r="B10" s="102"/>
+      <c r="C10" s="108">
         <f>COUNTA(tbl_SeqLib[Sample ID])</f>
         <v>0</v>
       </c>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
       <c r="G10" s="4" t="s">
         <v>313</v>
       </c>
@@ -3393,28 +3393,28 @@
         <v>14</v>
       </c>
       <c r="B11" s="88"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="105"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="5"/>
@@ -3437,11 +3437,11 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="94" t="s">
+      <c r="I15" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
     </row>
     <row r="16" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
@@ -3452,10 +3452,10 @@
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="I16" s="84" t="s">
+      <c r="I16" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="84"/>
+      <c r="J16" s="107"/>
       <c r="K16" s="9" t="s">
         <v>20</v>
       </c>
@@ -3467,10 +3467,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="I17" s="92">
+      <c r="I17" s="104">
         <v>30</v>
       </c>
-      <c r="J17" s="92"/>
+      <c r="J17" s="104"/>
       <c r="K17" s="2" t="s">
         <v>21</v>
       </c>
@@ -3482,10 +3482,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="I18" s="92">
+      <c r="I18" s="104">
         <v>30</v>
       </c>
-      <c r="J18" s="92"/>
+      <c r="J18" s="104"/>
       <c r="K18" s="7">
         <v>2</v>
       </c>
@@ -3497,10 +3497,10 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="G19" s="8"/>
-      <c r="I19" s="92">
+      <c r="I19" s="104">
         <v>80</v>
       </c>
-      <c r="J19" s="92"/>
+      <c r="J19" s="104"/>
       <c r="K19" s="2">
         <v>2</v>
       </c>
@@ -3512,10 +3512,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="G20" s="8"/>
-      <c r="I20" s="92">
+      <c r="I20" s="104">
         <v>8</v>
       </c>
-      <c r="J20" s="92"/>
+      <c r="J20" s="104"/>
       <c r="K20" s="2" t="s">
         <v>21</v>
       </c>
@@ -3538,21 +3538,21 @@
       <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="96" t="str">
+      <c r="A23" s="95" t="str">
         <f>_xlfn.CONCAT("2. Clean up: Add 0.5x vol (", SUM(5*exp_rxns)*0.5,"µl) AMPPure beads for 5 min RT with mixing, wash with fresh 80% EtOH, spin, dry, re-suspend in 15 µl EB (10 min @RT) and transfer eluate to fresh tube")</f>
         <v>2. Clean up: Add 0.5x vol (0µl) AMPPure beads for 5 min RT with mixing, wash with fresh 80% EtOH, spin, dry, re-suspend in 15 µl EB (10 min @RT) and transfer eluate to fresh tube</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
@@ -3575,18 +3575,18 @@
       <c r="C25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="99" t="s">
+      <c r="E25" s="97"/>
+      <c r="F25" s="100" t="s">
         <v>303</v>
       </c>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99" t="s">
+      <c r="G25" s="100"/>
+      <c r="H25" s="100" t="s">
         <v>304</v>
       </c>
-      <c r="I25" s="99"/>
+      <c r="I25" s="100"/>
     </row>
     <row r="26" spans="1:17" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
@@ -3597,21 +3597,21 @@
       <c r="C26" s="21">
         <v>10</v>
       </c>
-      <c r="D26" s="97">
+      <c r="D26" s="98">
         <f>SUM(B26*C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="97"/>
-      <c r="F26" s="98" t="str">
+      <c r="E26" s="98"/>
+      <c r="F26" s="99" t="str">
         <f>IFERROR(IF(SUM(flowcell_targetmass/DNAconc_pooled)&gt;adaptlig_maxvol_ul,adaptlig_maxvol_ul, ROUNDUP(SUM(flowcell_targetmass/DNAconc_pooled),1)),"")</f>
         <v/>
       </c>
-      <c r="G26" s="98"/>
-      <c r="H26" s="100" t="str">
+      <c r="G26" s="99"/>
+      <c r="H26" s="101" t="str">
         <f>IFERROR(SUM(adaptlig_maxvol_ul-F26),"")</f>
         <v/>
       </c>
-      <c r="I26" s="100"/>
+      <c r="I26" s="101"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
@@ -3653,8 +3653,8 @@
         <v>30</v>
       </c>
       <c r="B34" s="88"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
       <c r="E34" s="8" t="s">
         <v>31</v>
       </c>
@@ -3685,49 +3685,49 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="85" t="s">
+      <c r="B41" s="107"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="85"/>
+      <c r="E41" s="111"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="86" t="s">
+      <c r="A42" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="87">
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="112">
         <f>flowcell_maxvol</f>
         <v>11</v>
       </c>
-      <c r="E42" s="87"/>
+      <c r="E42" s="112"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="82" t="s">
+      <c r="A43" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="83">
+      <c r="B43" s="109"/>
+      <c r="C43" s="109"/>
+      <c r="D43" s="110">
         <v>37.5</v>
       </c>
-      <c r="E43" s="83"/>
+      <c r="E43" s="110"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="83">
+      <c r="B44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="110">
         <v>25.5</v>
       </c>
-      <c r="E44" s="83"/>
+      <c r="E44" s="110"/>
       <c r="F44" s="4" t="s">
         <v>29</v>
       </c>
@@ -3751,33 +3751,16 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="49">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:F8"/>
@@ -3790,16 +3773,33 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:C6 C11 B26:C26 C34">
     <cfRule type="expression" dxfId="7" priority="7">
